--- a/ESPN sports website/IPL/Delhi Capitals/Khaleel Ahmed.xlsx
+++ b/ESPN sports website/IPL/Delhi Capitals/Khaleel Ahmed.xlsx
@@ -460,16 +460,16 @@
         <v>0.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Gujarat Titans</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J2" t="str">
-        <v>April 02, 2022</v>
+        <v>May 08, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Titans won by 14 runs</v>
+        <v>Super Kings won by 91 runs</v>
       </c>
     </row>
     <row r="3">
@@ -495,16 +495,16 @@
         <v>0.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I3" t="str">
-        <v>DY Patil</v>
+        <v>Pune</v>
       </c>
       <c r="J3" t="str">
-        <v>May 08, 2022</v>
+        <v>April 02, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Super Kings won by 91 runs</v>
+        <v>Titans won by 14 runs</v>
       </c>
     </row>
   </sheetData>
